--- a/downloaded_files/BDES280_Lecture-35621.xlsx
+++ b/downloaded_files/BDES280_Lecture-35621.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Khaled Mohamed Khaled Ahmed Zain El/Dein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى محمد نور الدين عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mohamed Noureldin Abdalla</x:t>
   </x:si>
   <x:si>
     <x:t>4220121</x:t>
@@ -308,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -891,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4159695255</x:v>
+        <x:v>45921.5336841088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45906.4159695255</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.2751306713</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4473099537</x:v>
+        <x:v>45912.2751306713</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4154415509</x:v>
+        <x:v>45907.4473099537</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45907.4154415509</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.6170398148</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.418968206</x:v>
+        <x:v>45909.6170398148</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45907.418968206</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9873253819</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45915.9873253819</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1269,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/BDES280_Lecture-35621.xlsx
+++ b/downloaded_files/BDES280_Lecture-35621.xlsx
@@ -1307,11 +1307,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : [18202]18202-60-الجيزة الرئيسي Time : Wednesday(16:17)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : ----- Time : Sunday(13:14)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : [18202]18202-60-الجيزة الرئيسي Time : Wednesday(16:17)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : ----- Time : Sunday(13:14)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : [18202]18202-60-الجيزة الرئيسي Time : Wednesday(16:17)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : ----- Time : Sunday(13:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/BDES280_Lecture-35621.xlsx
+++ b/downloaded_files/BDES280_Lecture-35621.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1230002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم محمد عبدالمجيد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ebrahim Mohamed Abdel Magied Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>4200368</x:t>
   </x:si>
   <x:si>
@@ -78,6 +69,15 @@
     <x:t>Jissca Isaac Abdelmalak Banoub</x:t>
   </x:si>
   <x:si>
+    <x:t>4230192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه ممدوح محمد على سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Mamdoh Mohamed Ali Sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220047</x:t>
   </x:si>
   <x:si>
@@ -96,6 +96,15 @@
     <x:t>Salma Mohamed Noureldin Abdalla</x:t>
   </x:si>
   <x:si>
+    <x:t>1230198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سهيله احمد على حنفى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sohaila Ahmed Aly Hanafy Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220121</x:t>
   </x:si>
   <x:si>
@@ -141,15 +150,6 @@
     <x:t>Omar Nasser Mohamed Mohamed Ali Gaafar</x:t>
   </x:si>
   <x:si>
-    <x:t>1210269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد محمد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Walid Mohamed Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210374</x:t>
   </x:si>
   <x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Malak Osama Abdulhameed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك محمد حسين محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Malak Mohamed Hussein Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1240277</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -708,7 +717,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.415249919</x:v>
+        <x:v>45906.7169549421</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -740,7 +749,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.7169549421</x:v>
+        <x:v>45907.6896296644</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -772,7 +781,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6896296644</x:v>
+        <x:v>45907.4161202546</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -804,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45907.6652135069</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6652135069</x:v>
+        <x:v>45927.4144476042</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4159695255</x:v>
+        <x:v>45927.4151642014</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45906.4159695255</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.2751306713</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4473099537</x:v>
+        <x:v>45912.2751306713</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4154415509</x:v>
+        <x:v>45907.4473099537</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45907.4154415509</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45927.4165351042</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/BDES280_Lecture-35621.xlsx
+++ b/downloaded_files/BDES280_Lecture-35621.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ahmed Ali Kamal Ewis</x:t>
   </x:si>
   <x:si>
+    <x:t>1230160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اشرقت احمد عبدالرازق محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ashraqat Ahmed Abd elrazak Ahmed Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240045</x:t>
   </x:si>
   <x:si>
@@ -51,15 +60,6 @@
     <x:t>Jana Waleed Mohamed raafat</x:t>
   </x:si>
   <x:si>
-    <x:t>1230026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جهاد خميس محمود مراد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gehad khamis Mahmoud Morad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240216</x:t>
   </x:si>
   <x:si>
@@ -69,15 +69,6 @@
     <x:t>Jissca Isaac Abdelmalak Banoub</x:t>
   </x:si>
   <x:si>
-    <x:t>4230192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبه ممدوح محمد على سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Mamdoh Mohamed Ali Sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220047</x:t>
   </x:si>
   <x:si>
@@ -168,15 +159,6 @@
     <x:t>Mahy tamer hassan Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1230240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد جميل اسماعيل اسماعيل العباسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Jameel Ismail Ismail AlAbasy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220283</x:t>
   </x:si>
   <x:si>
@@ -211,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Yusuf Mamdouh Muhammed Alsaghier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف وسيم مسامح محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>youssef waseem mesameh mohamed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -749,7 +740,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6896296644</x:v>
+        <x:v>45928.519831713</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -781,7 +772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4161202546</x:v>
+        <x:v>45907.6896296644</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -845,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4144476042</x:v>
+        <x:v>45907.4155171296</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4155171296</x:v>
+        <x:v>45921.5336841088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45921.5336841088</x:v>
+        <x:v>45927.4151642014</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4151642014</x:v>
+        <x:v>45906.4159695255</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4159695255</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45912.2751306713</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.2751306713</x:v>
+        <x:v>45907.4473099537</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4473099537</x:v>
+        <x:v>45907.4154415509</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4154415509</x:v>
+        <x:v>45909.6170398148</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.6170398148</x:v>
+        <x:v>45907.418968206</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.418968206</x:v>
+        <x:v>45915.9873253819</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45927.4165351042</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.9873253819</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4165351042</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45928.4742971065</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1311,48 +1302,16 @@
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
     </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : ----- Time : Sunday(13:14)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : [20320]20320-32-الجيزة الرئيسي Time : Sunday(13:14)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : ----- Time : Sunday(13:14)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : [20320]20320-32-الجيزة الرئيسي Time : Sunday(13:14)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : ----- Time : Sunday(13:14)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Engineering Seminar (BDES280) Location : [20320]20320-32-الجيزة الرئيسي Time : Sunday(13:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/BDES280_Lecture-35621.xlsx
+++ b/downloaded_files/BDES280_Lecture-35621.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Khaled Mohamed Khaled Ahmed Zain El/Dein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمد عوض علي عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Mohamed Awad Ali Awad</x:t>
   </x:si>
   <x:si>
     <x:t>1220244</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -868,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45921.5336841088</x:v>
+        <x:v>45928.8660885069</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4151642014</x:v>
+        <x:v>45921.5336841088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4159695255</x:v>
+        <x:v>45927.4151642014</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45906.4159695255</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.2751306713</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4473099537</x:v>
+        <x:v>45912.2751306713</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4154415509</x:v>
+        <x:v>45907.4473099537</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.6170398148</x:v>
+        <x:v>45907.4154415509</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.418968206</x:v>
+        <x:v>45909.6170398148</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9873253819</x:v>
+        <x:v>45907.418968206</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4165351042</x:v>
+        <x:v>45915.9873253819</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45927.4165351042</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.4742971065</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45928.4742971065</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/BDES280_Lecture-35621.xlsx
+++ b/downloaded_files/BDES280_Lecture-35621.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1230011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عطاى كمال كمال الدين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed attay kamal kamalelden</x:t>
+  </x:si>
+  <x:si>
     <x:t>4200368</x:t>
   </x:si>
   <x:si>
@@ -148,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Nasser Mohamed Mohamed Ali Gaafar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid Mohamed Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210374</x:t>
@@ -326,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -717,7 +735,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.7169549421</x:v>
+        <x:v>45930.3537383912</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -749,7 +767,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45928.519831713</x:v>
+        <x:v>45906.7169549421</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -781,7 +799,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6896296644</x:v>
+        <x:v>45928.519831713</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -813,7 +831,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6652135069</x:v>
+        <x:v>45907.6896296644</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +863,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4155171296</x:v>
+        <x:v>45907.6652135069</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +895,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45928.8660885069</x:v>
+        <x:v>45907.4155171296</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +927,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45921.5336841088</x:v>
+        <x:v>45928.8660885069</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4151642014</x:v>
+        <x:v>45921.5336841088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4159695255</x:v>
+        <x:v>45927.4151642014</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45906.4159695255</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.2751306713</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4473099537</x:v>
+        <x:v>45912.2751306713</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4154415509</x:v>
+        <x:v>45907.4473099537</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.6170398148</x:v>
+        <x:v>45907.4154415509</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.418968206</x:v>
+        <x:v>45930.3506154282</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9873253819</x:v>
+        <x:v>45909.6170398148</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4165351042</x:v>
+        <x:v>45907.418968206</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45915.9873253819</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45927.4165351042</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.4742971065</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1360,70 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45928.4742971065</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/BDES280_Lecture-35621.xlsx
+++ b/downloaded_files/BDES280_Lecture-35621.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Hesham Zakaria Abdelmoomen Salem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي محمود احمد ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mahmoud Ahmed Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1230070</x:t>
@@ -344,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1087,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.2751306713</x:v>
+        <x:v>45907.4473099537</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4473099537</x:v>
+        <x:v>45907.4154415509</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4154415509</x:v>
+        <x:v>45930.3506154282</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45930.3506154282</x:v>
+        <x:v>45909.6170398148</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.6170398148</x:v>
+        <x:v>45907.418968206</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.418968206</x:v>
+        <x:v>45915.9873253819</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.9873253819</x:v>
+        <x:v>45927.4165351042</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4165351042</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1366,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45928.4742971065</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1392,38 +1383,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45928.4742971065</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
